--- a/数据整理/stocks/港股/03908-中金公司.xlsx
+++ b/数据整理/stocks/港股/03908-中金公司.xlsx
@@ -451,519 +451,699 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2028</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9475</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8373</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3496</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>040021</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>华安大中华升级股票(QDII)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>93.47</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2.25</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006578</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006579</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>98.18</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>12.85</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>97.93</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>10.11</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>88.05</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>60.25</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009448</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰康申润一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009449</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰康申润一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>161729</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>9.81</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005644</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发沪港深行业龙头混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005937</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>工银瑞信精选金融地产行业混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005938</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>工银瑞信精选金融地产行业混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>75.25</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009210</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中欧嘉和三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009211</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中欧嘉和三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -973,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +1174,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>010902</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>博时成长领航灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>115.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5416</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010902</t>
+          <t>010027</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时成长领航灵活配置混合A</t>
+          <t>景顺长城核心中景一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>40.82</t>
+          <t>73.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0735</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010903</t>
+          <t>009190</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时成长领航灵活配置混合C</t>
+          <t>景顺长城核心优选一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>40.82</t>
+          <t>59.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8767</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161729</t>
+          <t>010723</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+          <t>中欧价值成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.52</t>
+          <t>46.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6618</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2237</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>010678</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>中欧均衡成长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>32.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1531</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010027</t>
+          <t>009210</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城核心中景一年持有期混合</t>
+          <t>中欧嘉和三年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>20.41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8531</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010678</t>
+          <t>010903</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合A</t>
+          <t>博时成长领航灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>17.68</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>40.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5410</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010679</t>
+          <t>005662</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合C</t>
+          <t>嘉实金融精选股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5114</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010723</t>
+          <t>005937</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中欧价值成长混合A</t>
+          <t>工银瑞信精选金融地产行业混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>9.16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3472</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010724</t>
+          <t>161729</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中欧价值成长混合C</t>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2079</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>005938</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>工银瑞信精选金融地产行业混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11.31</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005662</t>
+          <t>010724</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉实金融精选股票A</t>
+          <t>中欧价值成长混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.84</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005663</t>
+          <t>009211</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实金融精选股票C</t>
+          <t>中欧嘉和三年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>90.84</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005937</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合A</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>90.90</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005938</t>
+          <t>010679</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合C</t>
+          <t>中欧均衡成长混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>90.90</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009190</t>
+          <t>005663</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>景顺长城核心优选一年持有期混合</t>
+          <t>嘉实金融精选股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>90.24</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009210</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合A</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>88.24</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009211</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合C</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>88.24</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/03908-中金公司.xlsx
+++ b/数据整理/stocks/港股/03908-中金公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1923,4 +1924,934 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>108.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.8605</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8156</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3092</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2614</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9322</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5176</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5062</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3808</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3784</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2276</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2140</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03908-中金公司.xlsx
+++ b/数据整理/stocks/港股/03908-中金公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2854,4 +2855,972 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7881</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>952009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1762</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>952099</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰君安君得鑫两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>68.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8153</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>11.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0946</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011167</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城景气成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7880</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6675</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4848</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4563</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3716</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03908-中金公司.xlsx
+++ b/数据整理/stocks/港股/03908-中金公司.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3823,4 +3824,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/03908-中金公司.xlsx
+++ b/数据整理/stocks/港股/03908-中金公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3832,7 +3833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3843,17 +3844,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3863,14 +3884,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.35</v>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3879,14 +3922,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.08</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1249</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3895,14 +3960,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.67</v>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6878</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3911,13 +3998,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4536</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3866</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2078</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1919</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004316</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004317</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.29</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03908-中金公司.xlsx
+++ b/数据整理/stocks/港股/03908-中金公司.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4535,7 +4536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4546,17 +4547,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4566,14 +4587,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.51</v>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4367</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4582,14 +4625,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.35</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2598</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4598,14 +4663,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>23</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.08</v>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2270</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4614,14 +4701,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.67</v>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1357</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4630,13 +4739,813 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5538</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4372</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4240</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3108</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011574</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010707</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信平稳合盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011575</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010708</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信平稳合盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.29</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/03908-中金公司.xlsx
+++ b/数据整理/stocks/港股/03908-中金公司.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,37 +467,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -507,36 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>513090</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达中证香港证券投资主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>12.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2028</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.67</v>
       </c>
     </row>
     <row r="3">
@@ -545,36 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009210</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中欧嘉和三年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>19.99</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9475</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.51</v>
       </c>
     </row>
     <row r="4">
@@ -583,36 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005644</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发沪港深行业龙头混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>13.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8373</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.35</v>
       </c>
     </row>
     <row r="5">
@@ -621,36 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005937</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信精选金融地产行业混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3496</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.08</v>
       </c>
     </row>
     <row r="6">
@@ -659,36 +551,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>161729</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.82</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2311</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.67</v>
       </c>
     </row>
     <row r="7">
@@ -697,454 +567,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005938</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>工银瑞信精选金融地产行业混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.99</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2170</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008488</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华商恒益稳健混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>60.25</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1529</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009211</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧嘉和三年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.99</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1261</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>97.93</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>10.11</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0880</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009448</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰康申润一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.61</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9.81</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006578</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0226</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.05</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006579</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.24</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>040021</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华安大中华升级股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009449</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>泰康申润一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>006477</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中邮沪港深精选混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>75.25</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.29</v>
       </c>
     </row>
   </sheetData>
@@ -1158,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1179,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1219,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>115.74</t>
+          <t>62.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>40.82</t>
+          <t>73.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.5416</t>
+          <t>2.4367</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1247,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010027</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城核心中景一年持有期混合</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>73.27</t>
+          <t>11.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.30</t>
+          <t>96.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>11.38</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0735</t>
+          <t>1.2598</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1285,32 +715,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009190</t>
+          <t>014362</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城核心优选一年持有期混合</t>
+          <t>睿远稳进配置两年持有混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>59.96</t>
+          <t>98.16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.24</t>
+          <t>33.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.8767</t>
+          <t>1.2270</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1323,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010723</t>
+          <t>008283</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧价值成长混合A</t>
+          <t>易方达金融行业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>46.81</t>
+          <t>34.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>91.49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.6618</t>
+          <t>1.1357</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1361,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>009984</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>鹏华启航两年封闭运作混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>14.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>97.93</t>
+          <t>89.97</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>11.31</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.2237</t>
+          <t>0.5538</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1399,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010678</t>
+          <t>014363</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合A</t>
+          <t>睿远稳进配置两年持有混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>34.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>33.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.1531</t>
+          <t>0.4372</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1437,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009210</t>
+          <t>005937</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合A</t>
+          <t>工银瑞信精选金融地产行业混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.41</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.24</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.8531</t>
+          <t>0.4240</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1485,26 +915,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17.68</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>40.82</t>
+          <t>73.89</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.5410</t>
+          <t>0.3116</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1513,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005662</t>
+          <t>005938</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实金融精选股票A</t>
+          <t>工银瑞信精选金融地产行业混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.93</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.84</t>
+          <t>89.64</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5114</t>
+          <t>0.3108</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1551,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005937</t>
+          <t>013659</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合A</t>
+          <t>中融金融鑫选3个月持有混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.16</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.90</t>
+          <t>72.19</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.3472</t>
+          <t>0.0974</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1589,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>161729</t>
+          <t>011574</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+          <t>鹏华领航一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86.52</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2079</t>
+          <t>0.0844</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1627,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005938</t>
+          <t>010707</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合C</t>
+          <t>安信平稳合盈一年持有期混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>9.04</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.90</t>
+          <t>20.56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1861</t>
+          <t>0.0786</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1665,32 +1095,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010724</t>
+          <t>011355</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧价值成长混合C</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>81.19</t>
+          <t>90.93</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1331</t>
+          <t>0.0706</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1703,36 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009211</t>
+          <t>008134</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合C</t>
+          <t>鹏华优选价值股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>88.24</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1112</t>
+          <t>0.0571</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1741,36 +1171,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>013660</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>中融金融鑫选3个月持有混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>72.19</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0719</t>
+          <t>0.0396</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1779,32 +1209,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010679</t>
+          <t>011575</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合C</t>
+          <t>鹏华领航一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>84.63</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0686</t>
+          <t>0.0375</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1817,36 +1247,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005663</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>嘉实金融精选股票C</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.84</t>
+          <t>92.57</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0675</t>
+          <t>0.0309</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1855,36 +1285,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>012244</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>86.81</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0289</t>
+          <t>0.0290</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1893,36 +1323,150 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>011356</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>90.93</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0138</t>
+          <t>0.0250</t>
         </is>
       </c>
       <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010708</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信平稳合盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002860</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1936,7 +1480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1957,7 +1501,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1997,22 +1541,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>108.44</t>
+          <t>86.93</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71.14</t>
+          <t>84.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.8605</t>
+          <t>3.0252</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -2025,36 +1569,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010723</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧价值成长混合A</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44.61</t>
+          <t>9.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.06</t>
+          <t>96.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>11.98</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8156</t>
+          <t>1.1249</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2063,32 +1607,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>009984</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>鹏华启航两年封闭运作混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>16.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.57</t>
+          <t>88.54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12.10</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3092</t>
+          <t>0.6878</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2101,36 +1645,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010678</t>
+          <t>005937</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合A</t>
+          <t>工银瑞信精选金融地产行业混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>30.69</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>91.16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2614</t>
+          <t>0.4536</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2139,36 +1683,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009210</t>
+          <t>010903</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合A</t>
+          <t>博时成长领航灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.43</t>
+          <t>11.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>86.61</t>
+          <t>84.30</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.9322</t>
+          <t>0.3866</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2177,36 +1721,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010903</t>
+          <t>011355</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时成长领航灵活配置混合C</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14.54</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>71.14</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5176</t>
+          <t>0.2078</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -2215,36 +1759,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005662</t>
+          <t>005938</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实金融精选股票A</t>
+          <t>工银瑞信精选金融地产行业混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.22</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.63</t>
+          <t>91.16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5062</t>
+          <t>0.1919</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2253,32 +1797,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005421</t>
+          <t>013659</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中欧嘉泽灵活配置混合</t>
+          <t>中融金融鑫选3个月持有混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.49</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.22</t>
+          <t>88.78</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3808</t>
+          <t>0.1102</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -2291,36 +1835,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005937</t>
+          <t>012244</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合A</t>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>87.67</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3784</t>
+          <t>0.0857</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2329,36 +1873,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161729</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.41</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>86.45</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>8.63</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2276</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -2367,36 +1911,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005938</t>
+          <t>013660</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合C</t>
+          <t>中融金融鑫选3个月持有混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>87.67</t>
+          <t>88.78</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.2140</t>
+          <t>0.0444</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -2405,36 +1949,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010724</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中欧价值成长混合C</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>82.06</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1331</t>
+          <t>0.0387</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2443,36 +1987,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009211</t>
+          <t>012245</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中欧嘉和三年持有期混合C</t>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>86.61</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.1214</t>
+          <t>0.0360</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -2481,36 +2025,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008134</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华优选价值股票</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>91.53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0983</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -2519,36 +2063,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005663</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>嘉实金融精选股票C</t>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>87.63</t>
+          <t>94.87</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0725</t>
+          <t>0.0167</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2557,36 +2101,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>96.37</t>
+          <t>91.53</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>7.74</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0697</t>
+          <t>0.0150</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -2595,264 +2139,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010679</t>
+          <t>011356</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中欧均衡成长混合C</t>
+          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.94</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0690</t>
+          <t>0.0142</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003413</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.79</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>8.63</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0311</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>011155</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>金鹰责任投资混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>61.18</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006578</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0243</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005576</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006579</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>泰康中证港股通非银行金融主题指数C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>011156</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>金鹰责任投资混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>61.18</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3834,7 +3150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3855,7 +3171,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3895,22 +3211,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.93</t>
+          <t>108.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>84.30</t>
+          <t>71.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.0252</t>
+          <t>3.8605</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -3923,36 +3239,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>010723</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>中欧价值成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>44.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.10</t>
+          <t>82.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11.98</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.1249</t>
+          <t>1.8156</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3961,32 +3277,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009984</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>鹏华启航两年封闭运作混合</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.94</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.54</t>
+          <t>96.57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>12.10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6878</t>
+          <t>1.3092</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -3999,36 +3315,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005937</t>
+          <t>010678</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合A</t>
+          <t>中欧均衡成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>30.69</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>90.94</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.4536</t>
+          <t>1.2614</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -4037,36 +3353,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010903</t>
+          <t>009210</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时成长领航灵活配置混合C</t>
+          <t>中欧嘉和三年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.11</t>
+          <t>21.43</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.30</t>
+          <t>86.61</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3866</t>
+          <t>0.9322</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -4075,36 +3391,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011355</t>
+          <t>010903</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+          <t>博时成长领航灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>14.54</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>71.14</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2078</t>
+          <t>0.5176</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -4113,36 +3429,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005938</t>
+          <t>005662</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合C</t>
+          <t>嘉实金融精选股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>9.22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.16</t>
+          <t>87.63</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1919</t>
+          <t>0.5062</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -4151,32 +3467,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>013659</t>
+          <t>005421</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中融金融鑫选3个月持有混合A</t>
+          <t>中欧嘉泽灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>10.49</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.78</t>
+          <t>90.22</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1102</t>
+          <t>0.3808</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -4189,36 +3505,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012244</t>
+          <t>005937</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+          <t>工银瑞信精选金融地产行业混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>87.67</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0857</t>
+          <t>0.3784</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -4227,36 +3543,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>460010</t>
+          <t>161729</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>86.45</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0526</t>
+          <t>0.2276</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -4265,36 +3581,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>013660</t>
+          <t>005938</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中融金融鑫选3个月持有混合C</t>
+          <t>工银瑞信精选金融地产行业混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88.78</t>
+          <t>87.67</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0444</t>
+          <t>0.2140</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -4303,36 +3619,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>010724</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>中欧价值成长混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>82.06</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0387</t>
+          <t>0.1331</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -4341,36 +3657,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>012245</t>
+          <t>009211</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+          <t>中欧嘉和三年持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>86.61</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0360</t>
+          <t>0.1214</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -4379,36 +3695,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004316</t>
+          <t>008134</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合A</t>
+          <t>鹏华优选价值股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>91.53</t>
+          <t>94.65</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.0983</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -4417,36 +3733,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005576</t>
+          <t>005663</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>嘉实金融精选股票C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.87</t>
+          <t>87.63</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0167</t>
+          <t>0.0725</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -4455,36 +3771,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004317</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>前海开源沪港深裕鑫灵活配置混合C</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>91.53</t>
+          <t>96.37</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>7.74</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0150</t>
+          <t>0.0697</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -4493,36 +3809,264 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>011356</t>
+          <t>010679</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+          <t>中欧均衡成长混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>90.94</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0142</t>
+          <t>0.0690</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4536,7 +4080,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4557,7 +4101,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4597,26 +4141,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>62.64</t>
+          <t>115.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.89</t>
+          <t>40.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.4367</t>
+          <t>3.5416</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4625,36 +4169,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>513090</t>
+          <t>010027</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达中证香港证券投资主题ETF</t>
+          <t>景顺长城核心中景一年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.07</t>
+          <t>73.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.47</t>
+          <t>90.30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11.38</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2598</t>
+          <t>2.0735</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4663,32 +4207,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014362</t>
+          <t>009190</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>睿远稳进配置两年持有混合A</t>
+          <t>景顺长城核心优选一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>98.16</t>
+          <t>59.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33.92</t>
+          <t>90.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.2270</t>
+          <t>1.8767</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -4701,36 +4245,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008283</t>
+          <t>010723</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>易方达金融行业股票</t>
+          <t>中欧价值成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>34.73</t>
+          <t>46.81</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.49</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1357</t>
+          <t>1.6618</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4739,36 +4283,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009984</t>
+          <t>513090</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华启航两年封闭运作混合</t>
+          <t>易方达中证香港证券投资主题ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.73</t>
+          <t>10.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.97</t>
+          <t>97.93</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>11.31</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5538</t>
+          <t>1.2237</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -4777,36 +4321,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>014363</t>
+          <t>010678</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>睿远稳进配置两年持有混合C</t>
+          <t>中欧均衡成长混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>34.98</t>
+          <t>32.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>33.92</t>
+          <t>84.63</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4372</t>
+          <t>1.1531</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -4815,36 +4359,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005937</t>
+          <t>009210</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合A</t>
+          <t>中欧嘉和三年持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>20.41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>88.24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4240</t>
+          <t>0.8531</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -4863,26 +4407,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>17.68</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>73.89</t>
+          <t>40.82</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3116</t>
+          <t>0.5410</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -4891,36 +4435,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005938</t>
+          <t>005662</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银瑞信精选金融地产行业混合C</t>
+          <t>嘉实金融精选股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.00</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.64</t>
+          <t>90.84</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.3108</t>
+          <t>0.5114</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -4929,36 +4473,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>013659</t>
+          <t>005937</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中融金融鑫选3个月持有混合A</t>
+          <t>工银瑞信精选金融地产行业混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>9.16</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>72.19</t>
+          <t>90.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0974</t>
+          <t>0.3472</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -4967,36 +4511,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011574</t>
+          <t>161729</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华领航一年持有期混合型证券投资基金A</t>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>90.27</t>
+          <t>86.52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0844</t>
+          <t>0.2079</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -5005,36 +4549,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010707</t>
+          <t>005938</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>安信平稳合盈一年持有期混合A</t>
+          <t>工银瑞信精选金融地产行业混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>20.56</t>
+          <t>90.90</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0786</t>
+          <t>0.1861</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -5043,32 +4587,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011355</t>
+          <t>010724</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金A</t>
+          <t>中欧价值成长混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>81.19</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0706</t>
+          <t>0.1331</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -5081,36 +4625,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008134</t>
+          <t>009211</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>鹏华优选价值股票</t>
+          <t>中欧嘉和三年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>88.24</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0571</t>
+          <t>0.1112</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -5119,36 +4663,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>013660</t>
+          <t>460010</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中融金融鑫选3个月持有混合C</t>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>72.19</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>7.12</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0396</t>
+          <t>0.0719</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -5157,32 +4701,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011575</t>
+          <t>010679</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>鹏华领航一年持有期混合型证券投资基金C</t>
+          <t>中欧均衡成长混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.27</t>
+          <t>84.63</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0375</t>
+          <t>0.0686</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -5195,36 +4739,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003413</t>
+          <t>005663</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+          <t>嘉实金融精选股票C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>92.57</t>
+          <t>90.84</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0309</t>
+          <t>0.0675</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -5233,36 +4777,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>012244</t>
+          <t>003413</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>86.81</t>
+          <t>94.72</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0290</t>
+          <t>0.0289</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -5271,150 +4815,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>011356</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华泰柏瑞港股通时代机遇混合型证券投资基金C</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>90.93</t>
+          <t>89.07</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0250</t>
+          <t>0.0138</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>012245</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>广发金融地产精选股票型发起式证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>86.81</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010708</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>安信平稳合盈一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>20.56</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0023</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002860</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>前海开源沪港深新机遇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>83.26</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -5428,7 +4858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5439,17 +4869,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5459,14 +4909,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.67</v>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>12.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2028</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -5475,14 +4947,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.51</v>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9475</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5491,14 +4985,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.35</v>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8373</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -5507,14 +5023,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>23</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.08</v>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3496</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -5523,14 +5061,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.67</v>
+          <t>161729</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -5539,14 +5099,454 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>17</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.29</v>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2170</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006578</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006579</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康中证港股通非银行金融主题指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/03908-中金公司.xlsx
+++ b/数据整理/stocks/港股/03908-中金公司.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>8.67</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>6.51</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>12.35</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>12.08</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>14.67</v>
+        <v>12.08</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>17</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.29</v>
       </c>
     </row>
@@ -583,6 +600,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1246</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>64.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6247</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3460</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012943</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3112</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012944</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2871</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方全球精选配置（QDII-FOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016374</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1474,7 +2041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2176,7 +2743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3144,7 +3711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4074,7 +4641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4852,7 +5419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/03908-中金公司.xlsx
+++ b/数据整理/stocks/港股/03908-中金公司.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>3.11</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>8.67</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>6.51</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>12.35</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>12.08</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>14.67</v>
+        <v>12.08</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.29</v>
       </c>
     </row>
@@ -600,6 +617,822 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>014591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达中证香港证券投资主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4066</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014362</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>64.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8071</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>睿远稳进配置两年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>37.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4451</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012943</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4020</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012944</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3692</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202801</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方全球精选配置（QDII-FOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>32.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2655</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014592</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发瑞誉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007109</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方沪港深核心优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011355</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011969</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011356</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞港股通时代机遇混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011970</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信港股通精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>016374</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>53.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1149,7 +1982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2041,7 +2874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2743,7 +3576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3711,7 +4544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4641,7 +5474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5419,7 +6252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
